--- a/data/trans_orig/P6709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2E4CBD1-C994-49F7-9D41-C6867FC0A0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52269B07-6D78-43D6-9665-68FABD7D316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{752741CA-F431-4F6E-A9D8-96C3675BBD94}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CE811D5-0B20-4FF0-97A5-136DA4AC883D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="367">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,1027 +105,1039 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,72%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
   </si>
   <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>22,66%</t>
   </si>
   <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A27BDD7-47A7-4AFE-ABB8-332D0FD2C63A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F8B67-A41B-40B0-BF61-494E2F1D7EF0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +2002,7 @@
         <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -1999,13 +2011,13 @@
         <v>127396</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2032,13 @@
         <v>72066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -2035,13 +2047,13 @@
         <v>45369</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -2050,13 +2062,13 @@
         <v>117435</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2083,13 @@
         <v>190830</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -2086,13 +2098,13 @@
         <v>118616</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>290</v>
@@ -2101,13 +2113,13 @@
         <v>309446</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2122,10 +2134,10 @@
         <v>245846</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>89</v>
@@ -2149,7 +2161,7 @@
         <v>363</v>
       </c>
       <c r="N13" s="7">
-        <v>378606</v>
+        <v>378605</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>93</v>
@@ -2200,7 +2212,7 @@
         <v>511</v>
       </c>
       <c r="N14" s="7">
-        <v>542441</v>
+        <v>542440</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>102</v>
@@ -2251,7 +2263,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1475323</v>
+        <v>1475322</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2603,10 +2615,10 @@
         <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>172</v>
@@ -2615,13 +2627,13 @@
         <v>188649</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2648,13 @@
         <v>99167</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -2651,13 +2663,13 @@
         <v>68247</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -2666,13 +2678,13 @@
         <v>167413</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,10 +2699,10 @@
         <v>295314</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>170</v>
@@ -2900,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D43F36-B831-4ED5-AF46-3309AF443C72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60123688-F6D1-49AF-A55C-2ACB230A5D83}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,10 +3105,10 @@
         <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3105,13 +3117,13 @@
         <v>32728</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3138,13 @@
         <v>24893</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3141,13 +3153,13 @@
         <v>17266</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -3156,13 +3168,13 @@
         <v>42159</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3189,7 @@
         <v>26566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>224</v>
@@ -3401,10 +3413,10 @@
         <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3413,13 +3425,13 @@
         <v>230561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3446,13 @@
         <v>259996</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -3449,13 +3461,13 @@
         <v>178780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>425</v>
@@ -3464,13 +3476,13 @@
         <v>438776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,13 +3497,13 @@
         <v>211948</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -3500,13 +3512,13 @@
         <v>146410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>203</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -3515,13 +3527,13 @@
         <v>358358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3536,13 +3548,13 @@
         <v>221955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -3551,13 +3563,13 @@
         <v>159052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -3569,10 +3581,10 @@
         <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3652,13 @@
         <v>20898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3655,13 +3667,13 @@
         <v>31863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3670,13 +3682,13 @@
         <v>52761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3703,13 @@
         <v>41099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3706,13 +3718,13 @@
         <v>33455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3721,13 +3733,13 @@
         <v>74553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,13 +3754,13 @@
         <v>89795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3757,13 +3769,13 @@
         <v>67664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M18" s="7">
         <v>147</v>
@@ -3772,13 +3784,13 @@
         <v>157459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3805,13 @@
         <v>82638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3808,13 +3820,13 @@
         <v>76989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>168</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
@@ -3823,13 +3835,13 @@
         <v>159627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,13 +3856,13 @@
         <v>116179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>321</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3859,13 +3871,13 @@
         <v>98482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>193</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -3874,13 +3886,13 @@
         <v>214662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3960,13 @@
         <v>154141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -3963,13 +3975,13 @@
         <v>109992</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>29</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -3978,13 +3990,13 @@
         <v>264132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +4011,13 @@
         <v>187440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
@@ -4014,13 +4026,13 @@
         <v>150403</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>322</v>
@@ -4029,13 +4041,13 @@
         <v>337843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4062,13 @@
         <v>374684</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -4065,13 +4077,13 @@
         <v>263710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
@@ -4080,13 +4092,13 @@
         <v>638393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,13 +4113,13 @@
         <v>321151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>230</v>
@@ -4116,13 +4128,13 @@
         <v>234160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M25" s="7">
         <v>535</v>
@@ -4131,13 +4143,13 @@
         <v>555311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>43</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>228</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4164,13 @@
         <v>381509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -4167,13 +4179,13 @@
         <v>275050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M26" s="7">
         <v>613</v>
@@ -4182,13 +4194,13 @@
         <v>656559</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52269B07-6D78-43D6-9665-68FABD7D316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4868EF86-E23A-4FB5-A4BC-9DFE9D71BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7CE811D5-0B20-4FF0-97A5-136DA4AC883D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B85A543-661E-4705-BF4E-0B126C1724A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="368">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
   </si>
   <si>
     <t>9,75%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -105,28 +105,28 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>7,35%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -135,1009 +135,1012 @@
     <t>22,47%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>15,29%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
 </sst>
 </file>
@@ -1549,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907F8B67-A41B-40B0-BF61-494E2F1D7EF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DE02A7-3251-4C51-BA8F-A9018D9FA8BB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1987,7 +1990,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -1996,13 +1999,13 @@
         <v>53892</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -2011,13 +2014,13 @@
         <v>127396</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,13 +2035,13 @@
         <v>72066</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>41</v>
@@ -2047,13 +2050,13 @@
         <v>45369</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>108</v>
@@ -2062,13 +2065,13 @@
         <v>117435</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2086,13 @@
         <v>190830</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -2098,13 +2101,13 @@
         <v>118616</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>290</v>
@@ -2113,13 +2116,13 @@
         <v>309446</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2134,10 +2137,10 @@
         <v>245846</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>89</v>
@@ -2161,7 +2164,7 @@
         <v>363</v>
       </c>
       <c r="N13" s="7">
-        <v>378605</v>
+        <v>378606</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>93</v>
@@ -2212,7 +2215,7 @@
         <v>511</v>
       </c>
       <c r="N14" s="7">
-        <v>542440</v>
+        <v>542441</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>102</v>
@@ -2263,7 +2266,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1475322</v>
+        <v>1475323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2346,7 +2349,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2355,13 +2358,13 @@
         <v>12668</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2370,13 +2373,13 @@
         <v>27707</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2394,13 @@
         <v>63138</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -2406,13 +2409,13 @@
         <v>55682</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -2421,13 +2424,13 @@
         <v>118820</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2445,13 @@
         <v>78332</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2457,13 +2460,13 @@
         <v>56729</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -2472,13 +2475,13 @@
         <v>135061</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2496,13 @@
         <v>148555</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -2508,13 +2511,13 @@
         <v>91244</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>211</v>
@@ -2523,13 +2526,13 @@
         <v>239800</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2600,13 @@
         <v>97602</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -2612,10 +2615,10 @@
         <v>91047</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>155</v>
@@ -2663,13 +2666,13 @@
         <v>68247</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -2678,13 +2681,13 @@
         <v>167413</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2702,13 @@
         <v>295314</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>177</v>
@@ -2714,13 +2717,13 @@
         <v>196235</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>457</v>
@@ -2729,13 +2732,13 @@
         <v>491549</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2753,13 @@
         <v>354230</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>199</v>
@@ -2765,13 +2768,13 @@
         <v>209807</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>536</v>
@@ -2780,13 +2783,13 @@
         <v>564037</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2804,13 @@
         <v>563735</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>345</v>
@@ -2816,13 +2819,13 @@
         <v>374046</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>872</v>
@@ -2831,13 +2834,13 @@
         <v>937781</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2896,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2912,7 +2915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60123688-F6D1-49AF-A55C-2ACB230A5D83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2AB65E-9CE8-4673-A4F1-B273055AB871}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2929,7 +2932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3036,13 +3039,13 @@
         <v>27697</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3051,13 +3054,13 @@
         <v>14404</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3066,13 +3069,13 @@
         <v>42101</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3090,13 @@
         <v>20588</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3102,13 +3105,13 @@
         <v>12140</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3117,13 +3120,13 @@
         <v>32728</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3141,13 @@
         <v>24893</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3153,13 +3156,13 @@
         <v>17266</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -3168,13 +3171,13 @@
         <v>42159</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,13 +3192,13 @@
         <v>26566</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3204,13 +3207,13 @@
         <v>10761</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3219,13 +3222,13 @@
         <v>37326</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,13 +3243,13 @@
         <v>43374</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -3255,13 +3258,13 @@
         <v>17516</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -3270,13 +3273,13 @@
         <v>60890</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3347,13 @@
         <v>105545</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3359,13 +3362,13 @@
         <v>63725</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3374,13 +3377,13 @@
         <v>169270</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3398,13 @@
         <v>125752</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -3410,13 +3413,13 @@
         <v>104808</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3425,13 +3428,13 @@
         <v>230561</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3449,13 @@
         <v>259996</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -3461,13 +3464,13 @@
         <v>178780</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M12" s="7">
         <v>425</v>
@@ -3476,13 +3479,13 @@
         <v>438776</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3500,13 @@
         <v>211948</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>141</v>
@@ -3512,13 +3515,13 @@
         <v>146410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M13" s="7">
         <v>342</v>
@@ -3527,13 +3530,13 @@
         <v>358358</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3551,13 @@
         <v>221955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>153</v>
@@ -3563,13 +3566,13 @@
         <v>159052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -3578,13 +3581,13 @@
         <v>381007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,13 +3655,13 @@
         <v>20898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3667,13 +3670,13 @@
         <v>31863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3682,13 +3685,13 @@
         <v>52761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3706,13 @@
         <v>41099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3718,13 +3721,13 @@
         <v>33455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3733,13 +3736,13 @@
         <v>74553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3757,13 @@
         <v>89795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3769,13 +3772,13 @@
         <v>67664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>147</v>
@@ -3784,13 +3787,13 @@
         <v>157459</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3808,13 @@
         <v>82638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3820,13 +3823,13 @@
         <v>76989</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
@@ -3835,13 +3838,13 @@
         <v>159627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3859,13 @@
         <v>116179</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3871,13 +3874,13 @@
         <v>98482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -3886,13 +3889,13 @@
         <v>214662</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3963,13 @@
         <v>154141</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -3975,13 +3978,13 @@
         <v>109992</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -3990,13 +3993,13 @@
         <v>264132</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4014,13 @@
         <v>187440</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
@@ -4026,13 +4029,13 @@
         <v>150403</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>322</v>
@@ -4041,13 +4044,13 @@
         <v>337843</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,10 +4068,10 @@
         <v>343</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -4077,13 +4080,13 @@
         <v>263710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
@@ -4092,13 +4095,13 @@
         <v>638393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>280</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,13 +4116,13 @@
         <v>321151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>352</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>230</v>
@@ -4143,13 +4146,13 @@
         <v>555311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4167,13 @@
         <v>381509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -4179,13 +4182,13 @@
         <v>275050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M26" s="7">
         <v>613</v>
@@ -4194,13 +4197,13 @@
         <v>656559</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,7 +4259,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4868EF86-E23A-4FB5-A4BC-9DFE9D71BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C06CA02-9267-4E10-B625-60BAB6A1EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0B85A543-661E-4705-BF4E-0B126C1724A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF56E1F2-F188-4F59-97C5-4D8CF47CBBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="363">
   <si>
     <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2012 (Tasa respuesta: 33,73%)</t>
   </si>
@@ -75,1072 +75,1057 @@
     <t>7,01%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>48,86%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>48,86%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>24,26%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tiene influencia sobre el orden en el que realizan las tareas en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
+    <t>27,8%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>21,02%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>26,62%</t>
   </si>
   <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
 </sst>
 </file>
@@ -1552,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DE02A7-3251-4C51-BA8F-A9018D9FA8BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087EE44-7C40-447F-8C15-227B27E0F23D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1990,7 +1975,7 @@
         <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -1999,13 +1984,13 @@
         <v>53892</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
         <v>117</v>
@@ -2349,7 +2334,7 @@
         <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2358,13 +2343,13 @@
         <v>12668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2373,13 +2358,13 @@
         <v>27707</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2379,13 @@
         <v>63138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -2409,13 +2394,13 @@
         <v>55682</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>110</v>
@@ -2424,13 +2409,13 @@
         <v>118820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2430,13 @@
         <v>78332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2460,13 +2445,13 @@
         <v>56729</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>125</v>
@@ -2475,13 +2460,13 @@
         <v>135061</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2481,13 @@
         <v>148555</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -2511,13 +2496,13 @@
         <v>91244</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>211</v>
@@ -2526,13 +2511,13 @@
         <v>239800</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2585,13 @@
         <v>97602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>85</v>
@@ -2615,13 +2600,13 @@
         <v>91047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>172</v>
@@ -2630,13 +2615,13 @@
         <v>188649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2636,13 @@
         <v>99167</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>61</v>
@@ -2666,13 +2651,13 @@
         <v>68247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>153</v>
@@ -2681,13 +2666,13 @@
         <v>167413</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2687,13 @@
         <v>295314</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>177</v>
@@ -2717,13 +2702,13 @@
         <v>196235</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>457</v>
@@ -2732,13 +2717,13 @@
         <v>491549</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2738,13 @@
         <v>354230</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>199</v>
@@ -2768,13 +2753,13 @@
         <v>209807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>536</v>
@@ -2783,13 +2768,13 @@
         <v>564037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,13 +2789,13 @@
         <v>563735</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>345</v>
@@ -2819,13 +2804,13 @@
         <v>374046</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>872</v>
@@ -2834,13 +2819,13 @@
         <v>937781</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2881,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2AB65E-9CE8-4673-A4F1-B273055AB871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFDBC53-FFB9-4895-8926-03C63F439544}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2932,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3039,13 +3024,13 @@
         <v>27697</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
@@ -3054,13 +3039,13 @@
         <v>14404</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>40</v>
@@ -3069,13 +3054,13 @@
         <v>42101</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3075,13 @@
         <v>20588</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3105,13 +3090,13 @@
         <v>12140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -3120,13 +3105,13 @@
         <v>32728</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3126,13 @@
         <v>24893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -3156,13 +3141,13 @@
         <v>17266</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>41</v>
@@ -3171,13 +3156,13 @@
         <v>42159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3177,13 @@
         <v>26566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -3207,13 +3192,13 @@
         <v>10761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3222,13 +3207,13 @@
         <v>37326</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,13 +3228,13 @@
         <v>43374</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H8" s="7">
         <v>17</v>
@@ -3258,13 +3243,13 @@
         <v>17516</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -3273,13 +3258,13 @@
         <v>60890</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,13 +3332,13 @@
         <v>105545</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -3362,13 +3347,13 @@
         <v>63725</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M10" s="7">
         <v>157</v>
@@ -3377,13 +3362,13 @@
         <v>169270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3398,13 +3383,13 @@
         <v>125752</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -3413,13 +3398,13 @@
         <v>104808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>252</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -3428,13 +3413,13 @@
         <v>230561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3434,13 @@
         <v>259996</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>180</v>
@@ -3464,13 +3449,13 @@
         <v>178780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>425</v>
@@ -3479,13 +3464,13 @@
         <v>438776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,7 +3503,7 @@
         <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>270</v>
@@ -3569,10 +3554,10 @@
         <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>357</v>
@@ -3581,13 +3566,13 @@
         <v>381007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3655,13 +3640,13 @@
         <v>20898</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -3670,13 +3655,13 @@
         <v>31863</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -3685,13 +3670,13 @@
         <v>52761</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3691,13 @@
         <v>41099</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3721,13 +3706,13 @@
         <v>33455</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -3736,13 +3721,13 @@
         <v>74553</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3742,13 @@
         <v>89795</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -3772,7 +3757,7 @@
         <v>67664</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>302</v>
@@ -3823,13 +3808,13 @@
         <v>76989</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>156</v>
@@ -3838,13 +3823,13 @@
         <v>159627</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3844,13 @@
         <v>116179</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>318</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>91</v>
@@ -3874,13 +3859,13 @@
         <v>98482</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>199</v>
@@ -3889,13 +3874,13 @@
         <v>214662</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,13 +3948,13 @@
         <v>154141</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>107</v>
@@ -3978,13 +3963,13 @@
         <v>109992</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>328</v>
+        <v>29</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>246</v>
@@ -3993,13 +3978,13 @@
         <v>264132</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,13 +3999,13 @@
         <v>187440</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>146</v>
@@ -4029,13 +4014,13 @@
         <v>150403</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>322</v>
@@ -4044,13 +4029,13 @@
         <v>337843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,13 +4050,13 @@
         <v>374684</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H24" s="7">
         <v>265</v>
@@ -4080,13 +4065,13 @@
         <v>263710</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M24" s="7">
         <v>613</v>
@@ -4095,13 +4080,13 @@
         <v>638393</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>88</v>
+        <v>345</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4101,13 @@
         <v>321151</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>349</v>
       </c>
       <c r="H25" s="7">
         <v>230</v>
@@ -4131,13 +4116,13 @@
         <v>234160</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>535</v>
@@ -4146,13 +4131,13 @@
         <v>555311</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>358</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4152,13 @@
         <v>381509</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H26" s="7">
         <v>261</v>
@@ -4182,13 +4167,13 @@
         <v>275050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>613</v>
@@ -4197,13 +4182,13 @@
         <v>656559</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4244,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C06CA02-9267-4E10-B625-60BAB6A1EC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9337F0ED-9FC8-4E95-894E-F7D5FD5F578B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF56E1F2-F188-4F59-97C5-4D8CF47CBBF7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{53E33950-46C3-42F7-9A90-AC7587E2C0AA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -1537,7 +1537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E087EE44-7C40-447F-8C15-227B27E0F23D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C3B79F-F69A-4CD0-A4E2-B6B1FBBB83FB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2900,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFDBC53-FFB9-4895-8926-03C63F439544}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F07E6BF-9285-4AFF-93F1-DAF13F6568D5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3975,7 +3975,7 @@
         <v>246</v>
       </c>
       <c r="N22" s="7">
-        <v>264132</v>
+        <v>264133</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>327</v>
@@ -4230,7 +4230,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
